--- a/docs/PTA2_DDC_40/PTA1_R5_BDDC_03.09.2024_output.xlsx
+++ b/docs/PTA2_DDC_40/PTA1_R5_BDDC_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1382 +505,1641 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731369341.0733101</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731369343.3443995</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369341.0733101.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369343.3443995.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>243.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>246.91</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-3.409999999999997</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731369343.888837</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731369344.5629976</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369343.888837.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369344.5629976.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>246.69</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>246.45</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.2400000000000091</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731369344.8164423</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731369346.7009108</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369344.8164423.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369346.7009108.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>247.57</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>248.11</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.5400000000000205</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731369347.3414176</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731369347.3414176.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731369347.3414176.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>247.89</v>
       </c>
-      <c r="J6" t="n">
-        <v>247.89</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" t="n">
+        <v>246.15</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1.739999999999981</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731369349.420154</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731369351.473874</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369349.420154.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369351.473874.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>243.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>246.91</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-3.409999999999997</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731369351.9370317</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731369352.5224943</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369351.9370317.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369352.5224943.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>246.69</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>246.45</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.2400000000000091</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731369352.7408822</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731369354.2969294</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369352.7408822.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369354.2969294.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>247.57</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>248.11</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.5400000000000205</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731369354.7966065</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731369355.9440284</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369354.7966065.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369355.9440284.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>247.89</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>241.75</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-6.139999999999986</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-2.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731369356.7960603</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731369359.1651273</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369356.7960603.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369359.1651273.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>244.27</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>247.41</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-3.139999999999986</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-1.29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731369359.6974173</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731369360.458096</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369359.6974173.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369360.458096.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>247.15</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>247.48</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.3299999999999841</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731369360.5918756</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731369362.7839541</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369360.5918756.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369362.7839541.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>247.92</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>248.89</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.9699999999999989</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731369363.0621793</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731369363.0621793.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731369363.0621793.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>248.88</v>
       </c>
-      <c r="J14" t="n">
-        <v>248.88</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+      <c r="L14" t="n">
+        <v>247.04</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-1.840000000000003</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731369365.6527495</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731369367.6295419</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369365.6527495.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369367.6295419.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>123.05</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>124.17</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-1.120000000000005</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731369367.8457174</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731369368.078486</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369367.8457174.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369368.078486.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>123.92</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>124.47</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.5499999999999972</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731369368.412036</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731369368.9793503</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369368.412036.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369368.9793503.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>125.03</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>124.57</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731369370.7989576</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731369371.1317022</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369370.7989576.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369371.1317022.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>124.99</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>124.58</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731369371.3415287</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731369371.3415287.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731369371.3415287.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>124.22</v>
       </c>
-      <c r="J19" t="n">
-        <v>124.22</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.8199999999999932</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731369373.3548772</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731369375.8435214</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731369373.3548772.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731369375.8435214.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6120</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6179</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-59</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731369377.601855</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731369378.6334164</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731369377.601855.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731369378.6334164.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6192.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6206</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>13.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731369378.9696925</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731369379.5364704</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731369378.9696925.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731369379.5364704.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6210</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6207</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731369380.446402</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731369380.446402.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731369380.446402.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6189.5</v>
       </c>
-      <c r="J23" t="n">
-        <v>6189.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
+      <c r="L23" t="n">
+        <v>6179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731369382.5332146</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731369384.8215852</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369382.5332146.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369384.8215852.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>458.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>464.15</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-5.649999999999977</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-1.23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731369386.2878535</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731369387.8051221</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369386.2878535.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369387.8051221.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>466.65</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>469.9</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-3.25</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731369388.427765</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731369389.451343</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369388.427765.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369389.451343.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>468.35</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>467.45</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.9000000000000341</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731369390.9896166</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731369393.1398482</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369390.9896166.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369393.1398482.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>191.25</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>193.5</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-2.25</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731369393.3837385</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731369395.1834698</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369393.3837385.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369395.1834698.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>195.08</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>195.14</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.05999999999997385</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731369396.3150077</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731369396.5261016</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369396.3150077.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369396.5261016.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>195.9</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>194.9</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731369396.6018193</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731369397.256583</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369396.6018193.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369397.256583.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>194.45</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>194.45</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1873,2467 +2147,2935 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731369398.0017042</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731369398.3996334</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369398.0017042.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369398.3996334.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>192.73</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>193.35</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.6200000000000045</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731369399.298354</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731369401.439407</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369399.298354.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369401.439407.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>956.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>962</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-5.200000000000045</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731369402.8259401</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731369403.3348062</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369402.8259401.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369403.3348062.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>970</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>963.2</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>6.799999999999955</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731369404.251252</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731369405.4706836</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369404.251252.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369405.4706836.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>971</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>970.6</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731369406.5648198</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731369406.5648198.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731369406.5648198.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>968.8</v>
       </c>
-      <c r="J35" t="n">
-        <v>968.8</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
+      <c r="L35" t="n">
+        <v>963</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-5.799999999999955</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731369409.1740584</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731369410.6084986</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731369409.1740584.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731369410.6084986.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>11.995</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>11.986</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.008999999999998565</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731369410.9225645</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731369411.2771804</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731369410.9225645.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731369411.2771804.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>11.975</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>11.979</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.003999999999999559</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731369411.5300236</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731369414.5656955</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731369411.5300236.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731369414.5656955.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>11.995</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>12.027</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.03200000000000003</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731369416.0916684</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731369416.9506574</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731369416.0916684.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731369416.9506574.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>12.074</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>12.062</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.01200000000000045</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731369417.14052</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731369417.14052.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731369417.14052.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>12.07</v>
       </c>
-      <c r="J40" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
+      <c r="L40" t="n">
+        <v>12.071</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.0009999999999994458</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731369418.0596633</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731369421.3889706</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731369418.0596633.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731369421.3889706.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>104.26</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>105.82</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-1.559999999999988</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731369421.5231383</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731369421.9244695</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731369421.5231383.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731369421.9244695.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>105.62</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>106.2</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.5799999999999983</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731369422.1761072</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731369424.5944455</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731369422.1761072.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731369424.5944455.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>106.7</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>106.9</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.2000000000000028</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731369424.8537297</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731369424.8537297.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731369424.8537297.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>106.58</v>
       </c>
-      <c r="J44" t="n">
-        <v>106.58</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
+      <c r="L44" t="n">
+        <v>105.66</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.9200000000000017</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731369426.8574688</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731369430.354037</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731369426.8574688.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731369430.354037.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>127.64</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>129.96</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-2.320000000000007</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-1.82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731369431.0756211</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731369431.2026815</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731369431.0756211.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731369431.2026815.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>129.92</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>130.56</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.6400000000000148</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731369432.7943962</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731369432.7943962.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731369432.7943962.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>129.78</v>
       </c>
-      <c r="J47" t="n">
-        <v>129.78</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>127.76</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-2.019999999999996</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.56</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731369435.2909968</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731369437.5815198</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731369435.2909968.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731369437.5815198.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>40.745</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>41.285</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.5399999999999991</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-1.33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731369438.697036</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731369439.7315974</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731369438.697036.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731369439.7315974.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>41.615</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>41.515</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731369440.305842</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731369440.6169088</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731369440.305842.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731369440.6169088.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>41.45</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>41.59</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731369441.7807388</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731369443.0334492</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731369441.7807388.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731369443.0334492.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>41.38</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>41.005</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.375</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.91</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731369444.8552382</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731369448.5545473</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731369444.8552382.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731369448.5545473.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1161</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1200</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-39</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-3.36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731369449.6431568</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731369450.0567174</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731369449.6431568.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731369450.0567174.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1195.8</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1200</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>4.200000000000045</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731369450.3407285</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731369450.7858043</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731369450.3407285.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731369450.7858043.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1204.4</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1197.2</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>7.200000000000045</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731369451.572749</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731369451.572749.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731369451.572749.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1195.2</v>
       </c>
-      <c r="J55" t="n">
-        <v>1195.2</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
+      <c r="L55" t="n">
+        <v>1165.4</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-29.79999999999995</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-2.49</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731369453.9650066</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731369459.5025146</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731369453.9650066.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731369459.5025146.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>47.43</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>48.55</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-1.119999999999997</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-2.36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731369460.3751528</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731369460.3751528.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731369460.3751528.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>48.4</v>
       </c>
-      <c r="J57" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
+      <c r="L57" t="n">
+        <v>47.94</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.4600000000000009</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.95</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731369461.7001638</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731369465.110027</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369461.7001638.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369465.110027.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>86.34</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>87.79000000000001</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-1.450000000000003</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.68</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731369465.5916808</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731369466.6530442</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369465.5916808.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369466.6530442.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>87.67</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.07000000000000739</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731369466.8311996</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731369468.625018</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369466.8311996.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369468.625018.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>87.95</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>88.37</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.4200000000000017</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731369469.3074493</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731369470.0693383</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369469.3074493.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369470.0693383.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>88.23999999999999</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>88.01000000000001</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.2299999999999898</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731369470.4290373</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731369470.4290373.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731369470.4290373.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="J62" t="n">
-        <v>87.15000000000001</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
+      <c r="L62" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731369470.9439015</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731369473.0287051</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SELG1731369470.9439015.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SELG1731369473.0287051.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>46.39</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>47.59</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-1.200000000000003</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-2.59</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731369474.5428984</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731369474.976782</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SELG1731369474.5428984.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SELG1731369474.976782.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>47.39</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>47.55</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731369475.80225</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731369476.4942732</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SELG1731369475.80225.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SELG1731369476.4942732.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>47.79</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>47.72</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731369477.153304</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731369477.153304.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731369477.153304.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>47.66</v>
       </c>
-      <c r="J66" t="n">
-        <v>47.66</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
+      <c r="L66" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.8599999999999994</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-1.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731369479.0103407</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731369481.8247378</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369479.0103407.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369481.8247378.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>137.66</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>139.74</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-2.080000000000013</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-1.51</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731369482.024664</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731369482.7842205</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369482.024664.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369482.7842205.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>139.2</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>139.9</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.7000000000000171</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731369482.8885267</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731369483.026603</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369482.8885267.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369483.026603.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>140.2</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>139.52</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.6799999999999784</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731369483.1891298</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731369483.770693</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369483.1891298.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369483.770693.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>140.3</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>139.62</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.6800000000000068</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731369483.9537747</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731369485.5113056</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369483.9537747.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369485.5113056.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>139.3</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>138.7</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.6000000000000227</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731369485.9744146</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731369486.7743816</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731369485.9744146.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731369486.7743816.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>0.2711</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>0.2741</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.003000000000000003</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731369486.9728985</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731369489.8799524</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731369486.9728985.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731369489.8799524.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>0.2763</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>0.2789</v>
       </c>
-      <c r="K73" t="n">
-        <v>-0.002600000000000047</v>
+      <c r="M73" t="n">
+        <v>-0.002599999999999991</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.9400000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731369491.62153</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731369492.4586756</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731369491.62153.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731369492.4586756.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>0.2809</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.2795</v>
       </c>
-      <c r="K74" t="n">
-        <v>0.001400000000000012</v>
+      <c r="M74" t="n">
+        <v>0.001399999999999957</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731369493.0287526</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731369493.0287526.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731369493.0287526.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>0.278</v>
       </c>
-      <c r="J75" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
+      <c r="L75" t="n">
+        <v>0.2766</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-0.001400000000000012</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731369494.1827555</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731369496.2550454</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731369494.1827555.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731369496.2550454.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>15.101</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>15.238</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.1369999999999987</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.91</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731369498.9971886</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731369500.3241565</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731369498.9971886.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731369500.3241565.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>15.344</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>15.353</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.009000000000000341</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731369500.431609</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731369500.431609.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731369500.431609.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>15.281</v>
       </c>
-      <c r="J78" t="n">
-        <v>15.281</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
+      <c r="L78" t="n">
+        <v>15.113</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.168000000000001</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-1.1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731369502.7446883</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731369506.0330145</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369502.7446883.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369506.0330145.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>644.8</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>652.35</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-7.550000000000068</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-1.17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731369506.3795197</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731369506.636949</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369506.3795197.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369506.636949.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>649.9</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>652.6</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>2.700000000000045</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731369507.8386197</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731369508.0767732</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369507.8386197.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369508.0767732.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>654.5</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>652.55</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>1.950000000000045</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731369509.1181893</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731369509.3747616</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369509.1181893.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369509.3747616.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>650.75</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>650.75</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4341,229 +5083,274 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731369510.017629</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731369510.017629.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731369510.017629.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>646.75</v>
       </c>
-      <c r="J83" t="n">
-        <v>646.75</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
+      <c r="L83" t="n">
+        <v>646.65</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731369510.978643</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731369512.7088034</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731369510.978643.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731369512.7088034.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>113.48</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>114.35</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.8699999999999903</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731369513.1890624</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731369514.3882096</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731369513.1890624.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731369514.3882096.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>113.4</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>113.73</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.3299999999999983</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731369514.995141</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731369516.2506301</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731369514.995141.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731369516.2506301.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>114.4</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>114.03</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.3700000000000045</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731369517.2329772</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731369517.2329772.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731369517.2329772.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>113.84</v>
       </c>
-      <c r="J87" t="n">
-        <v>113.84</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
+      <c r="L87" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-1.240000000000009</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-1.09</v>
       </c>
     </row>
   </sheetData>
@@ -4577,7 +5364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4606,6 +5393,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4614,13 +5411,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-14.11000000000001</v>
+        <v>-15.95000000000002</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.763750000000002</v>
+        <v>-1.993750000000002</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-6.49</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -4630,13 +5433,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.00700000000000145</v>
+        <v>-0.008000000000000895</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00140000000000029</v>
+        <v>-0.001600000000000179</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.07000000000000002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="4">
@@ -4646,13 +5455,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2999999999999972</v>
+        <v>-0.519999999999996</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05999999999999943</v>
+        <v>-0.1039999999999992</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="5">
@@ -4670,6 +5485,12 @@
       <c r="D5" t="n">
         <v>-0.1379999999999938</v>
       </c>
+      <c r="E5" t="n">
+        <v>-0.3799999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4678,13 +5499,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.170000000000002</v>
+        <v>-2.030000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4340000000000003</v>
+        <v>-0.4060000000000002</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="7">
@@ -4702,6 +5529,12 @@
       <c r="D7" t="n">
         <v>-0.1240000000000066</v>
       </c>
+      <c r="E7" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4710,13 +5543,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.899999999999977</v>
+        <v>-3</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5799999999999954</v>
+        <v>-0.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="9">
@@ -4726,13 +5565,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1699999999999875</v>
+        <v>-1.409999999999997</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04249999999999687</v>
+        <v>-0.3524999999999991</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="10">
@@ -4742,13 +5587,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.970000000000006</v>
+        <v>-1.830000000000005</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2425000000000015</v>
+        <v>-0.4575000000000014</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-3.899999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.97</v>
       </c>
     </row>
     <row r="11">
@@ -4758,13 +5609,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-27.59999999999991</v>
+        <v>-57.39999999999986</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.899999999999977</v>
+        <v>-14.34999999999997</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-4.899999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.22</v>
       </c>
     </row>
     <row r="12">
@@ -4774,13 +5631,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.179999999999993</v>
+        <v>-2.099999999999994</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2949999999999982</v>
+        <v>-0.5249999999999986</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13">
@@ -4790,13 +5653,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-42.5</v>
+        <v>-53</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>-10.625</v>
+        <v>-13.25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.8599999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="14">
@@ -4814,6 +5683,12 @@
       <c r="D14" t="n">
         <v>-0.1687499999999993</v>
       </c>
+      <c r="E14" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.42</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4822,13 +5697,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001799999999999968</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0004499999999999921</v>
+        <v>9.999999999998899e-05</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
@@ -4838,13 +5719,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.999999999999886</v>
+        <v>-3.800000000000068</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4999999999999716</v>
+        <v>-0.9500000000000171</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="17">
@@ -4854,13 +5741,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.190000000000026</v>
+        <v>-5.930000000000007</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.047500000000007</v>
+        <v>-1.482500000000002</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.42</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="18">
@@ -4870,13 +5763,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.145999999999999</v>
+        <v>-0.3140000000000001</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.04866666666666634</v>
+        <v>-0.1046666666666667</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -4894,6 +5793,12 @@
       <c r="D19" t="n">
         <v>-3.266666666666671</v>
       </c>
+      <c r="E19" t="n">
+        <v>-2.12</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.71</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4902,13 +5807,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.679999999999993</v>
+        <v>-3.699999999999989</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.5599999999999975</v>
+        <v>-1.23333333333333</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="21">
@@ -4918,13 +5829,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.119999999999997</v>
+        <v>-1.579999999999998</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.5599999999999987</v>
+        <v>-0.7899999999999991</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-3.31</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.65</v>
       </c>
     </row>
     <row r="22">
@@ -4940,6 +5857,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
